--- a/settings/noreadytable/Couple.xlsx
+++ b/settings/noreadytable/Couple.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Couple" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -528,14 +526,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1328,7 +1326,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1694,38 +1692,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>